--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb1-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb1-Eng.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H2">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I2">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J2">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>172.744858</v>
+        <v>198.3395793333333</v>
       </c>
       <c r="N2">
-        <v>518.234574</v>
+        <v>595.018738</v>
       </c>
       <c r="O2">
-        <v>0.7076554979861184</v>
+        <v>0.743678971552218</v>
       </c>
       <c r="P2">
-        <v>0.7076554979861185</v>
+        <v>0.7436789715522182</v>
       </c>
       <c r="Q2">
-        <v>5618.555124514808</v>
+        <v>11619.32757608467</v>
       </c>
       <c r="R2">
-        <v>50566.99612063327</v>
+        <v>104573.948184762</v>
       </c>
       <c r="S2">
-        <v>0.04508269011517697</v>
+        <v>0.08543043959417818</v>
       </c>
       <c r="T2">
-        <v>0.04508269011517697</v>
+        <v>0.0854304395941782</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H3">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I3">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J3">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.55288066666667</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N3">
         <v>133.658642</v>
       </c>
       <c r="O3">
-        <v>0.1825124713980552</v>
+        <v>0.1670520860498112</v>
       </c>
       <c r="P3">
-        <v>0.1825124713980553</v>
+        <v>0.1670520860498113</v>
       </c>
       <c r="Q3">
-        <v>1449.089824610564</v>
+        <v>2610.041408095333</v>
       </c>
       <c r="R3">
-        <v>13041.80842149508</v>
+        <v>23490.372672858</v>
       </c>
       <c r="S3">
-        <v>0.0116273429848418</v>
+        <v>0.01919017975803795</v>
       </c>
       <c r="T3">
-        <v>0.0116273429848418</v>
+        <v>0.01919017975803795</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H4">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I4">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J4">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.185461333333334</v>
+        <v>4.884127333333333</v>
       </c>
       <c r="N4">
-        <v>24.556384</v>
+        <v>14.652382</v>
       </c>
       <c r="O4">
-        <v>0.03353203553003075</v>
+        <v>0.01831315163817619</v>
       </c>
       <c r="P4">
-        <v>0.03353203553003076</v>
+        <v>0.0183131516381762</v>
       </c>
       <c r="Q4">
-        <v>266.2334859247609</v>
+        <v>286.1268315686666</v>
       </c>
       <c r="R4">
-        <v>2396.101373322848</v>
+        <v>2575.141484118</v>
       </c>
       <c r="S4">
-        <v>0.00213622924012262</v>
+        <v>0.002103731118736337</v>
       </c>
       <c r="T4">
-        <v>0.002136229240122621</v>
+        <v>0.002103731118736338</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H5">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I5">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J5">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.571916666666667</v>
+        <v>6.952303666666666</v>
       </c>
       <c r="N5">
-        <v>25.71575</v>
+        <v>20.856911</v>
       </c>
       <c r="O5">
-        <v>0.03511516364467131</v>
+        <v>0.02606782800550416</v>
       </c>
       <c r="P5">
-        <v>0.03511516364467132</v>
+        <v>0.02606782800550417</v>
       </c>
       <c r="Q5">
-        <v>278.8030096641945</v>
+        <v>407.2868057043333</v>
       </c>
       <c r="R5">
-        <v>2509.22708697775</v>
+        <v>3665.581251339</v>
       </c>
       <c r="S5">
-        <v>0.002237085764813063</v>
+        <v>0.002994552879621499</v>
       </c>
       <c r="T5">
-        <v>0.002237085764813064</v>
+        <v>0.0029945528796215</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H6">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I6">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J6">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.398973</v>
+        <v>2.587242666666667</v>
       </c>
       <c r="N6">
-        <v>7.196918999999999</v>
+        <v>7.761728</v>
       </c>
       <c r="O6">
-        <v>0.009827478818329008</v>
+        <v>0.009700927933647787</v>
       </c>
       <c r="P6">
-        <v>0.009827478818329011</v>
+        <v>0.009700927933647789</v>
       </c>
       <c r="Q6">
-        <v>78.02699425486033</v>
+        <v>151.5684371413333</v>
       </c>
       <c r="R6">
-        <v>702.242948293743</v>
+        <v>1364.115934272</v>
       </c>
       <c r="S6">
-        <v>0.0006260803221921455</v>
+        <v>0.001114398241102857</v>
       </c>
       <c r="T6">
-        <v>0.0006260803221921457</v>
+        <v>0.001114398241102857</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H7">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I7">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J7">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.654602333333333</v>
+        <v>9.384400999999999</v>
       </c>
       <c r="N7">
-        <v>22.963807</v>
+        <v>28.153203</v>
       </c>
       <c r="O7">
-        <v>0.03135735262279531</v>
+        <v>0.0351870348206426</v>
       </c>
       <c r="P7">
-        <v>0.03135735262279532</v>
+        <v>0.03518703482064261</v>
       </c>
       <c r="Q7">
-        <v>248.9672090041199</v>
+        <v>549.7663637829999</v>
       </c>
       <c r="R7">
-        <v>2240.704881037079</v>
+        <v>4947.897274047</v>
       </c>
       <c r="S7">
-        <v>0.001997686466294569</v>
+        <v>0.004042125658695031</v>
       </c>
       <c r="T7">
-        <v>0.00199768646629457</v>
+        <v>0.004042125658695031</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>36.467271</v>
       </c>
       <c r="I8">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J8">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>172.744858</v>
+        <v>198.3395793333333</v>
       </c>
       <c r="N8">
-        <v>518.234574</v>
+        <v>595.018738</v>
       </c>
       <c r="O8">
-        <v>0.7076554979861184</v>
+        <v>0.743678971552218</v>
       </c>
       <c r="P8">
-        <v>0.7076554979861185</v>
+        <v>0.7436789715522182</v>
       </c>
       <c r="Q8">
-        <v>2099.844516847506</v>
+        <v>2410.967729858222</v>
       </c>
       <c r="R8">
-        <v>18898.60065162756</v>
+        <v>21698.709568724</v>
       </c>
       <c r="S8">
-        <v>0.01684892958156472</v>
+        <v>0.01772650195636974</v>
       </c>
       <c r="T8">
-        <v>0.01684892958156473</v>
+        <v>0.01772650195636975</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>36.467271</v>
       </c>
       <c r="I9">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J9">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>44.55288066666667</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N9">
         <v>133.658642</v>
       </c>
       <c r="O9">
-        <v>0.1825124713980552</v>
+        <v>0.1670520860498112</v>
       </c>
       <c r="P9">
-        <v>0.1825124713980553</v>
+        <v>0.1670520860498113</v>
       </c>
       <c r="Q9">
-        <v>541.5739910339981</v>
+        <v>541.573991033998</v>
       </c>
       <c r="R9">
-        <v>4874.165919305983</v>
+        <v>4874.165919305982</v>
       </c>
       <c r="S9">
-        <v>0.004345532235804802</v>
+        <v>0.003981891707919159</v>
       </c>
       <c r="T9">
-        <v>0.004345532235804804</v>
+        <v>0.003981891707919159</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>36.467271</v>
       </c>
       <c r="I10">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J10">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.185461333333334</v>
+        <v>4.884127333333333</v>
       </c>
       <c r="N10">
-        <v>24.556384</v>
+        <v>14.652382</v>
       </c>
       <c r="O10">
-        <v>0.03353203553003075</v>
+        <v>0.01831315163817619</v>
       </c>
       <c r="P10">
-        <v>0.03353203553003076</v>
+        <v>0.0183131516381762</v>
       </c>
       <c r="Q10">
-        <v>99.50047890089603</v>
+        <v>59.370265021058</v>
       </c>
       <c r="R10">
-        <v>895.5043101080641</v>
+        <v>534.332385189522</v>
       </c>
       <c r="S10">
-        <v>0.0007983812843676899</v>
+        <v>0.0004365164684754462</v>
       </c>
       <c r="T10">
-        <v>0.0007983812843676901</v>
+        <v>0.0004365164684754462</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>36.467271</v>
       </c>
       <c r="I11">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J11">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.571916666666667</v>
+        <v>6.952303666666666</v>
       </c>
       <c r="N11">
-        <v>25.71575</v>
+        <v>20.856911</v>
       </c>
       <c r="O11">
-        <v>0.03511516364467131</v>
+        <v>0.02606782800550416</v>
       </c>
       <c r="P11">
-        <v>0.03511516364467132</v>
+        <v>0.02606782800550417</v>
       </c>
       <c r="Q11">
-        <v>104.19813602425</v>
+        <v>84.510513962209</v>
       </c>
       <c r="R11">
-        <v>937.7832242182501</v>
+        <v>760.5946256598811</v>
       </c>
       <c r="S11">
-        <v>0.000836074786641161</v>
+        <v>0.0006213587069342505</v>
       </c>
       <c r="T11">
-        <v>0.0008360747866411614</v>
+        <v>0.0006213587069342506</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>36.467271</v>
       </c>
       <c r="I12">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J12">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.398973</v>
+        <v>2.587242666666667</v>
       </c>
       <c r="N12">
-        <v>7.196918999999999</v>
+        <v>7.761728</v>
       </c>
       <c r="O12">
-        <v>0.009827478818329008</v>
+        <v>0.009700927933647787</v>
       </c>
       <c r="P12">
-        <v>0.009827478818329011</v>
+        <v>0.009700927933647789</v>
       </c>
       <c r="Q12">
-        <v>29.161332837561</v>
+        <v>31.449893156032</v>
       </c>
       <c r="R12">
-        <v>262.451995538049</v>
+        <v>283.049038404288</v>
       </c>
       <c r="S12">
-        <v>0.0002339874402807119</v>
+        <v>0.0002312335356686025</v>
       </c>
       <c r="T12">
-        <v>0.000233987440280712</v>
+        <v>0.0002312335356686025</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>36.467271</v>
       </c>
       <c r="I13">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J13">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.654602333333333</v>
+        <v>9.384400999999999</v>
       </c>
       <c r="N13">
-        <v>22.963807</v>
+        <v>28.153203</v>
       </c>
       <c r="O13">
-        <v>0.03135735262279531</v>
+        <v>0.0351870348206426</v>
       </c>
       <c r="P13">
-        <v>0.03135735262279532</v>
+        <v>0.03518703482064261</v>
       </c>
       <c r="Q13">
-        <v>93.047485895633</v>
+        <v>114.074498146557</v>
       </c>
       <c r="R13">
-        <v>837.4273730606971</v>
+        <v>1026.670483319013</v>
       </c>
       <c r="S13">
-        <v>0.0007466031532424213</v>
+        <v>0.0008387262050520071</v>
       </c>
       <c r="T13">
-        <v>0.0007466031532424218</v>
+        <v>0.0008387262050520072</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H14">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I14">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J14">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>172.744858</v>
+        <v>198.3395793333333</v>
       </c>
       <c r="N14">
-        <v>518.234574</v>
+        <v>595.018738</v>
       </c>
       <c r="O14">
-        <v>0.7076554979861184</v>
+        <v>0.743678971552218</v>
       </c>
       <c r="P14">
-        <v>0.7076554979861185</v>
+        <v>0.7436789715522182</v>
       </c>
       <c r="Q14">
-        <v>26096.07498750004</v>
+        <v>29295.01099834555</v>
       </c>
       <c r="R14">
-        <v>234864.6748875004</v>
+        <v>263655.0989851099</v>
       </c>
       <c r="S14">
-        <v>0.2093921365567238</v>
+        <v>0.2153898881942244</v>
       </c>
       <c r="T14">
-        <v>0.2093921365567238</v>
+        <v>0.2153898881942244</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H15">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I15">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J15">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>44.55288066666667</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N15">
         <v>133.658642</v>
       </c>
       <c r="O15">
-        <v>0.1825124713980552</v>
+        <v>0.1670520860498112</v>
       </c>
       <c r="P15">
-        <v>0.1825124713980553</v>
+        <v>0.1670520860498113</v>
       </c>
       <c r="Q15">
-        <v>6730.47712243032</v>
+        <v>6580.517784322164</v>
       </c>
       <c r="R15">
-        <v>60574.29410187288</v>
+        <v>59224.66005889947</v>
       </c>
       <c r="S15">
-        <v>0.05400463423663867</v>
+        <v>0.04838287959356982</v>
       </c>
       <c r="T15">
-        <v>0.0540046342366387</v>
+        <v>0.04838287959356981</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H16">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I16">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J16">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.185461333333334</v>
+        <v>4.884127333333333</v>
       </c>
       <c r="N16">
-        <v>24.556384</v>
+        <v>14.652382</v>
       </c>
       <c r="O16">
-        <v>0.03353203553003075</v>
+        <v>0.01831315163817619</v>
       </c>
       <c r="P16">
-        <v>0.03353203553003076</v>
+        <v>0.0183131516381762</v>
       </c>
       <c r="Q16">
-        <v>1236.554391459506</v>
+        <v>721.3918897491264</v>
       </c>
       <c r="R16">
-        <v>11128.98952313555</v>
+        <v>6492.527007742137</v>
       </c>
       <c r="S16">
-        <v>0.009921981222092964</v>
+        <v>0.005303992495038142</v>
       </c>
       <c r="T16">
-        <v>0.009921981222092967</v>
+        <v>0.005303992495038142</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H17">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I17">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J17">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.571916666666667</v>
+        <v>6.952303666666666</v>
       </c>
       <c r="N17">
-        <v>25.71575</v>
+        <v>20.856911</v>
       </c>
       <c r="O17">
-        <v>0.03511516364467131</v>
+        <v>0.02606782800550416</v>
       </c>
       <c r="P17">
-        <v>0.03511516364467132</v>
+        <v>0.02606782800550417</v>
       </c>
       <c r="Q17">
-        <v>1294.935100875389</v>
+        <v>1026.864194546617</v>
       </c>
       <c r="R17">
-        <v>11654.4159078785</v>
+        <v>9241.777750919549</v>
       </c>
       <c r="S17">
-        <v>0.01039042183947103</v>
+        <v>0.007549960096159005</v>
       </c>
       <c r="T17">
-        <v>0.01039042183947104</v>
+        <v>0.007549960096159005</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H18">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I18">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J18">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.398973</v>
+        <v>2.587242666666667</v>
       </c>
       <c r="N18">
-        <v>7.196918999999999</v>
+        <v>7.761728</v>
       </c>
       <c r="O18">
-        <v>0.009827478818329008</v>
+        <v>0.009700927933647787</v>
       </c>
       <c r="P18">
-        <v>0.009827478818329011</v>
+        <v>0.009700927933647789</v>
       </c>
       <c r="Q18">
-        <v>362.4060364273647</v>
+        <v>382.1390699231503</v>
       </c>
       <c r="R18">
-        <v>3261.654327846282</v>
+        <v>3439.251629308352</v>
       </c>
       <c r="S18">
-        <v>0.002907907580160176</v>
+        <v>0.002809655594600756</v>
       </c>
       <c r="T18">
-        <v>0.002907907580160178</v>
+        <v>0.002809655594600756</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H19">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I19">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J19">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.654602333333333</v>
+        <v>9.384400999999999</v>
       </c>
       <c r="N19">
-        <v>22.963807</v>
+        <v>28.153203</v>
       </c>
       <c r="O19">
-        <v>0.03135735262279531</v>
+        <v>0.0351870348206426</v>
       </c>
       <c r="P19">
-        <v>0.03135735262279532</v>
+        <v>0.03518703482064261</v>
       </c>
       <c r="Q19">
-        <v>1156.359030322972</v>
+        <v>1386.08809916782</v>
       </c>
       <c r="R19">
-        <v>10407.23127290675</v>
+        <v>12474.79289251038</v>
       </c>
       <c r="S19">
-        <v>0.009278502154135027</v>
+        <v>0.01019113325214189</v>
       </c>
       <c r="T19">
-        <v>0.009278502154135032</v>
+        <v>0.01019113325214189</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H20">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I20">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J20">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>172.744858</v>
+        <v>198.3395793333333</v>
       </c>
       <c r="N20">
-        <v>518.234574</v>
+        <v>595.018738</v>
       </c>
       <c r="O20">
-        <v>0.7076554979861184</v>
+        <v>0.743678971552218</v>
       </c>
       <c r="P20">
-        <v>0.7076554979861185</v>
+        <v>0.7436789715522182</v>
       </c>
       <c r="Q20">
-        <v>1683.114188010493</v>
+        <v>1386.546182676507</v>
       </c>
       <c r="R20">
-        <v>15148.02769209444</v>
+        <v>12478.91564408857</v>
       </c>
       <c r="S20">
-        <v>0.01350512964364434</v>
+        <v>0.01019450128486683</v>
       </c>
       <c r="T20">
-        <v>0.01350512964364435</v>
+        <v>0.01019450128486683</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H21">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I21">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J21">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>44.55288066666667</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N21">
         <v>133.658642</v>
       </c>
       <c r="O21">
-        <v>0.1825124713980552</v>
+        <v>0.1670520860498112</v>
       </c>
       <c r="P21">
-        <v>0.1825124713980553</v>
+        <v>0.1670520860498113</v>
       </c>
       <c r="Q21">
-        <v>434.0944583531689</v>
+        <v>311.4588970252326</v>
       </c>
       <c r="R21">
-        <v>3906.85012517852</v>
+        <v>2803.130073227094</v>
       </c>
       <c r="S21">
-        <v>0.003483127870591372</v>
+        <v>0.002289983677123384</v>
       </c>
       <c r="T21">
-        <v>0.003483127870591374</v>
+        <v>0.002289983677123384</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H22">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I22">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J22">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.185461333333334</v>
+        <v>4.884127333333333</v>
       </c>
       <c r="N22">
-        <v>24.556384</v>
+        <v>14.652382</v>
       </c>
       <c r="O22">
-        <v>0.03353203553003075</v>
+        <v>0.01831315163817619</v>
       </c>
       <c r="P22">
-        <v>0.03353203553003076</v>
+        <v>0.0183131516381762</v>
       </c>
       <c r="Q22">
-        <v>79.75384196700445</v>
+        <v>34.14380595391933</v>
       </c>
       <c r="R22">
-        <v>717.78457770304</v>
+        <v>307.294253585274</v>
       </c>
       <c r="S22">
-        <v>0.0006399363649927255</v>
+        <v>0.0002510403750097692</v>
       </c>
       <c r="T22">
-        <v>0.0006399363649927257</v>
+        <v>0.0002510403750097692</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H23">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I23">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J23">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.571916666666667</v>
+        <v>6.952303666666666</v>
       </c>
       <c r="N23">
-        <v>25.71575</v>
+        <v>20.856911</v>
       </c>
       <c r="O23">
-        <v>0.03511516364467131</v>
+        <v>0.02606782800550416</v>
       </c>
       <c r="P23">
-        <v>0.03511516364467132</v>
+        <v>0.02606782800550417</v>
       </c>
       <c r="Q23">
-        <v>83.51921282722222</v>
+        <v>48.60194895151967</v>
       </c>
       <c r="R23">
-        <v>751.6729154449999</v>
+        <v>437.417540563677</v>
       </c>
       <c r="S23">
-        <v>0.0006701493012188472</v>
+        <v>0.0003573430421746703</v>
       </c>
       <c r="T23">
-        <v>0.0006701493012188475</v>
+        <v>0.0003573430421746704</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H24">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I24">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J24">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.398973</v>
+        <v>2.587242666666667</v>
       </c>
       <c r="N24">
-        <v>7.196918999999999</v>
+        <v>7.761728</v>
       </c>
       <c r="O24">
-        <v>0.009827478818329008</v>
+        <v>0.009700927933647787</v>
       </c>
       <c r="P24">
-        <v>0.009827478818329011</v>
+        <v>0.009700927933647789</v>
       </c>
       <c r="Q24">
-        <v>23.37404157612666</v>
+        <v>18.08681582961067</v>
       </c>
       <c r="R24">
-        <v>210.36637418514</v>
+        <v>162.781342466496</v>
       </c>
       <c r="S24">
-        <v>0.0001875508293080561</v>
+        <v>0.0001329822760452072</v>
       </c>
       <c r="T24">
-        <v>0.0001875508293080562</v>
+        <v>0.0001329822760452072</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H25">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I25">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J25">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.654602333333333</v>
+        <v>9.384400999999999</v>
       </c>
       <c r="N25">
-        <v>22.963807</v>
+        <v>28.153203</v>
       </c>
       <c r="O25">
-        <v>0.03135735262279531</v>
+        <v>0.0351870348206426</v>
       </c>
       <c r="P25">
-        <v>0.03135735262279532</v>
+        <v>0.03518703482064261</v>
       </c>
       <c r="Q25">
-        <v>74.58149515982444</v>
+        <v>65.60417959436899</v>
       </c>
       <c r="R25">
-        <v>671.2334564384199</v>
+        <v>590.4376163493209</v>
       </c>
       <c r="S25">
-        <v>0.0005984340030671658</v>
+        <v>0.0004823509678389601</v>
       </c>
       <c r="T25">
-        <v>0.0005984340030671662</v>
+        <v>0.0004823509678389602</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H26">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I26">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J26">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>172.744858</v>
+        <v>198.3395793333333</v>
       </c>
       <c r="N26">
-        <v>518.234574</v>
+        <v>595.018738</v>
       </c>
       <c r="O26">
-        <v>0.7076554979861184</v>
+        <v>0.743678971552218</v>
       </c>
       <c r="P26">
-        <v>0.7076554979861185</v>
+        <v>0.7436789715522182</v>
       </c>
       <c r="Q26">
-        <v>24631.99840035258</v>
+        <v>37250.1912362461</v>
       </c>
       <c r="R26">
-        <v>221687.9856031732</v>
+        <v>335251.7211262149</v>
       </c>
       <c r="S26">
-        <v>0.1976445413795821</v>
+        <v>0.2738798946360404</v>
       </c>
       <c r="T26">
-        <v>0.1976445413795821</v>
+        <v>0.2738798946360405</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H27">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I27">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J27">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>44.55288066666667</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N27">
         <v>133.658642</v>
       </c>
       <c r="O27">
-        <v>0.1825124713980552</v>
+        <v>0.1670520860498112</v>
       </c>
       <c r="P27">
-        <v>0.1825124713980553</v>
+        <v>0.1670520860498113</v>
       </c>
       <c r="Q27">
-        <v>6352.874974214474</v>
+        <v>8367.484344462702</v>
       </c>
       <c r="R27">
-        <v>57175.87476793026</v>
+        <v>75307.35910016432</v>
       </c>
       <c r="S27">
-        <v>0.05097479466799865</v>
+        <v>0.06152144873823494</v>
       </c>
       <c r="T27">
-        <v>0.05097479466799867</v>
+        <v>0.06152144873823494</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H28">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I28">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J28">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>8.185461333333334</v>
+        <v>4.884127333333333</v>
       </c>
       <c r="N28">
-        <v>24.556384</v>
+        <v>14.652382</v>
       </c>
       <c r="O28">
-        <v>0.03353203553003075</v>
+        <v>0.01831315163817619</v>
       </c>
       <c r="P28">
-        <v>0.03353203553003076</v>
+        <v>0.0183131516381762</v>
       </c>
       <c r="Q28">
-        <v>1167.179578038813</v>
+        <v>917.2888124517013</v>
       </c>
       <c r="R28">
-        <v>10504.61620234931</v>
+        <v>8255.599312065313</v>
       </c>
       <c r="S28">
-        <v>0.009365325080801939</v>
+        <v>0.006744313383836687</v>
       </c>
       <c r="T28">
-        <v>0.009365325080801941</v>
+        <v>0.006744313383836688</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H29">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I29">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J29">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.571916666666667</v>
+        <v>6.952303666666666</v>
       </c>
       <c r="N29">
-        <v>25.71575</v>
+        <v>20.856911</v>
       </c>
       <c r="O29">
-        <v>0.03511516364467131</v>
+        <v>0.02606782800550416</v>
       </c>
       <c r="P29">
-        <v>0.03511516364467132</v>
+        <v>0.02606782800550417</v>
       </c>
       <c r="Q29">
-        <v>1222.284935516222</v>
+        <v>1305.713372924677</v>
       </c>
       <c r="R29">
-        <v>11000.564419646</v>
+        <v>11751.4203563221</v>
       </c>
       <c r="S29">
-        <v>0.009807484621784397</v>
+        <v>0.009600182687210218</v>
       </c>
       <c r="T29">
-        <v>0.0098074846217844</v>
+        <v>0.00960018268721022</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H30">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I30">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J30">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.398973</v>
+        <v>2.587242666666667</v>
       </c>
       <c r="N30">
-        <v>7.196918999999999</v>
+        <v>7.761728</v>
       </c>
       <c r="O30">
-        <v>0.009827478818329008</v>
+        <v>0.009700927933647787</v>
       </c>
       <c r="P30">
-        <v>0.009827478818329011</v>
+        <v>0.009700927933647789</v>
       </c>
       <c r="Q30">
-        <v>342.0738526323547</v>
+        <v>485.9104997189617</v>
       </c>
       <c r="R30">
-        <v>3078.664673691192</v>
+        <v>4373.194497470656</v>
       </c>
       <c r="S30">
-        <v>0.00274476429490596</v>
+        <v>0.00357262908052083</v>
       </c>
       <c r="T30">
-        <v>0.002744764294905961</v>
+        <v>0.003572629080520831</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H31">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I31">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J31">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>7.654602333333333</v>
+        <v>9.384400999999999</v>
       </c>
       <c r="N31">
-        <v>22.963807</v>
+        <v>28.153203</v>
       </c>
       <c r="O31">
-        <v>0.03135735262279531</v>
+        <v>0.0351870348206426</v>
       </c>
       <c r="P31">
-        <v>0.03135735262279532</v>
+        <v>0.03518703482064261</v>
       </c>
       <c r="Q31">
-        <v>1091.483443345109</v>
+        <v>1762.486000336442</v>
       </c>
       <c r="R31">
-        <v>9823.350990105975</v>
+        <v>15862.37400302798</v>
       </c>
       <c r="S31">
-        <v>0.008757947328393099</v>
+        <v>0.01295857723275104</v>
       </c>
       <c r="T31">
-        <v>0.008757947328393105</v>
+        <v>0.01295857723275104</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H32">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I32">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J32">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>172.744858</v>
+        <v>198.3395793333333</v>
       </c>
       <c r="N32">
-        <v>518.234574</v>
+        <v>595.018738</v>
       </c>
       <c r="O32">
-        <v>0.7076554979861184</v>
+        <v>0.743678971552218</v>
       </c>
       <c r="P32">
-        <v>0.7076554979861185</v>
+        <v>0.7436789715522182</v>
       </c>
       <c r="Q32">
-        <v>28063.93926584648</v>
+        <v>19185.15419545484</v>
       </c>
       <c r="R32">
-        <v>252575.4533926184</v>
+        <v>172666.3877590936</v>
       </c>
       <c r="S32">
-        <v>0.2251820707094264</v>
+        <v>0.1410577458865384</v>
       </c>
       <c r="T32">
-        <v>0.2251820707094265</v>
+        <v>0.1410577458865384</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H33">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I33">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J33">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>44.55288066666667</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N33">
         <v>133.658642</v>
       </c>
       <c r="O33">
-        <v>0.1825124713980552</v>
+        <v>0.1670520860498112</v>
       </c>
       <c r="P33">
-        <v>0.1825124713980553</v>
+        <v>0.1670520860498113</v>
       </c>
       <c r="Q33">
-        <v>7238.011895832174</v>
+        <v>4309.547737848041</v>
       </c>
       <c r="R33">
-        <v>65142.10706248956</v>
+        <v>38785.92964063238</v>
       </c>
       <c r="S33">
-        <v>0.0580770394021799</v>
+        <v>0.03168570257492598</v>
       </c>
       <c r="T33">
-        <v>0.05807703940217993</v>
+        <v>0.03168570257492598</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H34">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I34">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J34">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>8.185461333333334</v>
+        <v>4.884127333333333</v>
       </c>
       <c r="N34">
-        <v>24.556384</v>
+        <v>14.652382</v>
       </c>
       <c r="O34">
-        <v>0.03353203553003075</v>
+        <v>0.01831315163817619</v>
       </c>
       <c r="P34">
-        <v>0.03353203553003076</v>
+        <v>0.0183131516381762</v>
       </c>
       <c r="Q34">
-        <v>1329.801027834944</v>
+        <v>472.4358915915468</v>
       </c>
       <c r="R34">
-        <v>11968.2092505145</v>
+        <v>4251.923024323922</v>
       </c>
       <c r="S34">
-        <v>0.01067018233765281</v>
+        <v>0.003473557797079811</v>
       </c>
       <c r="T34">
-        <v>0.01067018233765281</v>
+        <v>0.003473557797079811</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H35">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I35">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J35">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>8.571916666666667</v>
+        <v>6.952303666666666</v>
       </c>
       <c r="N35">
-        <v>25.71575</v>
+        <v>20.856911</v>
       </c>
       <c r="O35">
-        <v>0.03511516364467131</v>
+        <v>0.02606782800550416</v>
       </c>
       <c r="P35">
-        <v>0.03511516364467132</v>
+        <v>0.02606782800550417</v>
       </c>
       <c r="Q35">
-        <v>1392.5841354145</v>
+        <v>672.48815545012</v>
       </c>
       <c r="R35">
-        <v>12533.2572187305</v>
+        <v>6052.39339905108</v>
       </c>
       <c r="S35">
-        <v>0.0111739473307428</v>
+        <v>0.004944430593404518</v>
       </c>
       <c r="T35">
-        <v>0.01117394733074281</v>
+        <v>0.004944430593404519</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H36">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I36">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J36">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.398973</v>
+        <v>2.587242666666667</v>
       </c>
       <c r="N36">
-        <v>7.196918999999999</v>
+        <v>7.761728</v>
       </c>
       <c r="O36">
-        <v>0.009827478818329008</v>
+        <v>0.009700927933647787</v>
       </c>
       <c r="P36">
-        <v>0.009827478818329011</v>
+        <v>0.009700927933647789</v>
       </c>
       <c r="Q36">
-        <v>389.734509911754</v>
+        <v>250.2609396868764</v>
       </c>
       <c r="R36">
-        <v>3507.610589205786</v>
+        <v>2252.348457181888</v>
       </c>
       <c r="S36">
-        <v>0.003127188351481957</v>
+        <v>0.001840029205709535</v>
       </c>
       <c r="T36">
-        <v>0.003127188351481959</v>
+        <v>0.001840029205709535</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H37">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I37">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J37">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>7.654602333333333</v>
+        <v>9.384400999999999</v>
       </c>
       <c r="N37">
-        <v>22.963807</v>
+        <v>28.153203</v>
       </c>
       <c r="O37">
-        <v>0.03135735262279531</v>
+        <v>0.0351870348206426</v>
       </c>
       <c r="P37">
-        <v>0.03135735262279532</v>
+        <v>0.03518703482064261</v>
       </c>
       <c r="Q37">
-        <v>1243.558259701562</v>
+        <v>907.7420695462901</v>
       </c>
       <c r="R37">
-        <v>11192.02433731406</v>
+        <v>8169.678625916612</v>
       </c>
       <c r="S37">
-        <v>0.00997817951766302</v>
+        <v>0.006674121504163672</v>
       </c>
       <c r="T37">
-        <v>0.009978179517663027</v>
+        <v>0.006674121504163673</v>
       </c>
     </row>
   </sheetData>
